--- a/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
+++ b/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\My Documents\Policy Solutions Project\India\Models\eps-1.3.3-india-wipB3\InputData\elec\ARpUIiRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\ARpUIiRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0528CB90-5AE8-4927-AC3C-585864305FB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21075" windowHeight="9030" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,20 @@
     <sheet name="Weighting" sheetId="8" r:id="rId3"/>
     <sheet name="ARpUIiRC" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="185">
   <si>
     <t>ARpUIiRC Annual Retirement per Unit Increase in Relative Cost</t>
   </si>
@@ -581,13 +590,28 @@
     <t>Note that for India, we scale the coal values based on the ratio of start year coal capacity</t>
   </si>
   <si>
-    <t>in each country and update the weighting based on India-specific data</t>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>in each country and update the weighting based on India-specific data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values for crude oil &amp; heavy residual fuel is assumed to be equal to petroleum, </t>
+  </si>
+  <si>
+    <t>and municipal solid waste to be equal to biomass.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -788,6 +812,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -823,6 +864,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -998,11 +1056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1244,17 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1204,10 +1272,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL113"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
@@ -7593,7 +7661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ146"/>
   <sheetViews>
     <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -13353,14 +13421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13488,6 +13556,33 @@
         <v>2490.9101540833549</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="6">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="6">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="6">
+        <f>B9</f>
+        <v>6020.3383593730159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
+++ b/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
@@ -1140,9 +1140,6 @@
     <t>Implementation Schedule Used for Calibration (EIA starts at specified price and increases by 5% annually)</t>
   </si>
   <si>
-    <t>India Adjustment</t>
-  </si>
-  <si>
     <t>2017 Coal Capacity India</t>
   </si>
   <si>
@@ -1153,6 +1150,9 @@
   </si>
   <si>
     <t>in each country and update the weighting based on India-specific data</t>
+  </si>
+  <si>
+    <t>India Adjustment (elec/SYC)</t>
   </si>
 </sst>
 </file>
@@ -1933,12 +1933,12 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -29593,7 +29593,7 @@
   <dimension ref="A1:AH180"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31098,13 +31098,13 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A25" s="31" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B26">
         <v>193.971</v>
@@ -31112,10 +31112,11 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B27">
-        <v>250.23</v>
+        <f>244246.1/1000</f>
+        <v>244.24610000000001</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.45">
@@ -52790,7 +52791,7 @@
       </c>
       <c r="B2" s="5">
         <f>Calculations!$B$23*(Calculations!$B$26/Calculations!$B$27)*Weighting!B104</f>
-        <v>581.37813211845105</v>
+        <v>595.62158822597371</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -52799,7 +52800,7 @@
       </c>
       <c r="B3" s="5">
         <f>Calculations!$B$23*(Calculations!$B$26/Calculations!$B$27)*Weighting!B105</f>
-        <v>470.98292905821182</v>
+        <v>482.52176120002053</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -52808,7 +52809,7 @@
       </c>
       <c r="B4" s="5">
         <f>Calculations!$B$23*(Calculations!$B$26/Calculations!$B$27)*Weighting!B106</f>
-        <v>301.77256482445654</v>
+        <v>309.16583272373134</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -52817,7 +52818,7 @@
       </c>
       <c r="B5" s="5">
         <f>Calculations!$B$23*(Calculations!$B$26/Calculations!$B$27)*Weighting!B107</f>
-        <v>157.31250776096212</v>
+        <v>161.16658082575546</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -52826,7 +52827,7 @@
       </c>
       <c r="B6" s="5">
         <f>Calculations!$B$23*(Calculations!$B$26/Calculations!$B$27)*Weighting!B108</f>
-        <v>169.36455047958734</v>
+        <v>173.51389220342571</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -52835,7 +52836,7 @@
       </c>
       <c r="B7" s="5">
         <f>Calculations!$B$23*(Calculations!$B$26/Calculations!$B$27)*Weighting!B109</f>
-        <v>131.66736648370869</v>
+        <v>134.89314717908874</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -52844,7 +52845,7 @@
       </c>
       <c r="B8" s="5">
         <f>Calculations!$B$23*(Calculations!$B$26/Calculations!$B$27)*Weighting!B110</f>
-        <v>173.05429957314831</v>
+        <v>177.29403819421844</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -52853,7 +52854,7 @@
       </c>
       <c r="B9" s="5">
         <f>Calculations!$B$23*(Calculations!$B$26/Calculations!$B$27)*Weighting!B111</f>
-        <v>816.64637844990932</v>
+        <v>836.65378190079923</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -52862,7 +52863,7 @@
       </c>
       <c r="B10" s="5">
         <f>Calculations!$B$23*(Calculations!$B$26/Calculations!$B$27)*Weighting!B112</f>
-        <v>240.90579926229361</v>
+        <v>246.80786366457326</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -52887,7 +52888,7 @@
       </c>
       <c r="B13" s="5">
         <f>Calculations!$B$23*(Calculations!$B$26/Calculations!$B$27)*Weighting!B115</f>
-        <v>515.71883084540332</v>
+        <v>528.35366887104954</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -52896,7 +52897,7 @@
       </c>
       <c r="B14" s="5">
         <f>Calculations!$B$23*(Calculations!$B$26/Calculations!$B$27)*Weighting!B116</f>
-        <v>257.03695245084219</v>
+        <v>263.33422155675868</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -52921,7 +52922,7 @@
       </c>
       <c r="B17" s="5">
         <f>Calculations!$B$23*(Calculations!$B$26/Calculations!$B$27)*Weighting!B119</f>
-        <v>1045.029754961628</v>
+        <v>1070.6324300942701</v>
       </c>
     </row>
   </sheetData>
